--- a/data/trans_dic/P64D$otros_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P64D$otros_2023-Estudios-trans_dic.xlsx
@@ -596,11 +596,11 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04325325649118975</v>
+        <v>0.04708943624029207</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.0278848414196945</v>
+        <v>0.03012393373181399</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.00504636551008775</v>
+        <v>0.005060587653549386</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.004272496438753839</v>
+        <v>0.004030162927639407</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.005532141128778141</v>
+        <v>0.00567825263608661</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01757458095763831</v>
+        <v>0.01719492636426749</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01897439541687742</v>
+        <v>0.01946107529783696</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01533748219724436</v>
+        <v>0.01474702858751502</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.005365840580360196</v>
+        <v>0.00547942566618521</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.002934363497035932</v>
+        <v>0.002938020846808301</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.005678486584380174</v>
+        <v>0.006044522554317995</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03079376457681023</v>
+        <v>0.0309914199743858</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02251142144291978</v>
+        <v>0.02441150067287666</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02102436807614299</v>
+        <v>0.02083794895009119</v>
       </c>
     </row>
     <row r="13">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.006692991445592123</v>
+        <v>0.006768415685170986</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.004343131337768994</v>
+        <v>0.004710886992498916</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.007068454461237178</v>
+        <v>0.006565907269844226</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01773474408916664</v>
+        <v>0.01780452423336173</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01561628965751654</v>
+        <v>0.01717356962352055</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0142955396456215</v>
+        <v>0.01449729224997827</v>
       </c>
     </row>
     <row r="16">
@@ -921,11 +921,11 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6970</v>
+        <v>7588</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>6837</v>
+        <v>7386</v>
       </c>
     </row>
     <row r="8">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6366</v>
+        <v>6384</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3987</v>
+        <v>3761</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>12142</v>
+        <v>12462</v>
       </c>
     </row>
     <row r="11">
@@ -991,13 +991,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>22171</v>
+        <v>21692</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>17707</v>
+        <v>18162</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>33662</v>
+        <v>32366</v>
       </c>
     </row>
     <row r="12">
@@ -1046,13 +1046,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2567</v>
+        <v>2621</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>5407</v>
+        <v>5755</v>
       </c>
     </row>
     <row r="15">
@@ -1063,13 +1063,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>14731</v>
+        <v>14825</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10665</v>
+        <v>11565</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>20018</v>
+        <v>19840</v>
       </c>
     </row>
     <row r="16">
@@ -1118,13 +1118,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>12724</v>
+        <v>12867</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6476</v>
+        <v>7024</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>23977</v>
+        <v>22272</v>
       </c>
     </row>
     <row r="19">
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>33714</v>
+        <v>33847</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>23284</v>
+        <v>25606</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>48491</v>
+        <v>49176</v>
       </c>
     </row>
     <row r="20">
